--- a/src/QAtrack/data/truebeam/monthly/monthly_definitions.xlsx
+++ b/src/QAtrack/data/truebeam/monthly/monthly_definitions.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
-    <sheet name="general" sheetId="10" r:id="rId2"/>
+    <sheet name="general" sheetId="11" r:id="rId2"/>
     <sheet name="output_photon" sheetId="3" r:id="rId3"/>
     <sheet name="output_electron" sheetId="4" r:id="rId4"/>
     <sheet name="mvd" sheetId="5" r:id="rId5"/>
@@ -17,6 +17,23 @@
     <sheet name="planar_kv" sheetId="8" r:id="rId8"/>
     <sheet name="cbct" sheetId="9" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="List_Electrometers">[1]Data!$M$31:$M$35</definedName>
+    <definedName name="List_Farmer_Probes">[1]Data!$A$31:$A$36</definedName>
+    <definedName name="List_Machine">[1]Data!$A$21:$A$26</definedName>
+    <definedName name="List_Markus_Probes">[1]Data!$G$31:$G$34</definedName>
+    <definedName name="List_Month">[1]Data!$C$2:$C$13</definedName>
+    <definedName name="List_Personnel">[1]Data!$A$2:$A$14</definedName>
+    <definedName name="List_Status1">[1]Data!$M$2:$M$4</definedName>
+    <definedName name="List_Status2">[1]Data!$O$2:$O$3</definedName>
+    <definedName name="List_Status3">[1]Data!$Q$2:$Q$3</definedName>
+    <definedName name="List_Status4">[1]Data!$S$2:$S$3</definedName>
+    <definedName name="List_Student">[1]Data!$U$2:$U$7</definedName>
+    <definedName name="List_Year">[1]Data!$D$2:$D$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1012">
   <si>
     <t>long</t>
   </si>
@@ -2875,12 +2892,279 @@
   <si>
     <t>AG34</t>
   </si>
+  <si>
+    <t>EDW60 - 6X Reference Value</t>
+  </si>
+  <si>
+    <t>EDW60 - 10X Reference Value</t>
+  </si>
+  <si>
+    <t>EDW60 - 15X Reference Value</t>
+  </si>
+  <si>
+    <t>edw_60_6x_reference_value</t>
+  </si>
+  <si>
+    <t>edw_60_10x_reference_value</t>
+  </si>
+  <si>
+    <t>edw_60_15x_reference_value</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>tmr_2.5_tpr_6x_reference_value</t>
+  </si>
+  <si>
+    <t>TMR - 6x - Reference Value at d=2.5cm</t>
+  </si>
+  <si>
+    <t>TMR - 10x - Reference Value at d=2.5cm</t>
+  </si>
+  <si>
+    <t>TMR - 15x - Reference Value at d=2.5cm</t>
+  </si>
+  <si>
+    <t>tmr_2.5_tpr_10x_reference_value</t>
+  </si>
+  <si>
+    <t>tmr_2.5_tpr_15x_reference_value</t>
+  </si>
+  <si>
+    <t>H52</t>
+  </si>
+  <si>
+    <t>H53</t>
+  </si>
+  <si>
+    <t>H54</t>
+  </si>
+  <si>
+    <t>TMR - 10fff - Reference Value at d=2.5cm</t>
+  </si>
+  <si>
+    <t>tmr_2.5_tpr_10fff_reference_value</t>
+  </si>
+  <si>
+    <t>dMLC - Millenium  Reference - 5mm Slot</t>
+  </si>
+  <si>
+    <t>dMLC - HD120  Reference - 5mm Slot</t>
+  </si>
+  <si>
+    <t>dmlc_millenium_reference_5mm_slot</t>
+  </si>
+  <si>
+    <t>dmlc_hd120_reference_5mm_slot</t>
+  </si>
+  <si>
+    <t>dMLC - Millenium  Reference - Beam Hold</t>
+  </si>
+  <si>
+    <t>dMLC - HD120  Reference - Beam Hold</t>
+  </si>
+  <si>
+    <t>dMLC - Millenium  Reference - Prostate (loMod)</t>
+  </si>
+  <si>
+    <t>dMLC - HD120  Reference - Prostate (loMod)</t>
+  </si>
+  <si>
+    <t>dMLC - Millenium  Reference - H&amp;N (HiMod)</t>
+  </si>
+  <si>
+    <t>dMLC - HD120  Reference - H&amp;N (HiMod)</t>
+  </si>
+  <si>
+    <t>dMLC - Millenium  Reference - H&amp;N VMAT</t>
+  </si>
+  <si>
+    <t>dMLC - HD120  Reference - H&amp;N VMAT</t>
+  </si>
+  <si>
+    <t>dmlc_millenium_reference_beam_hold</t>
+  </si>
+  <si>
+    <t>dmlc_hd120_reference_beam_hold</t>
+  </si>
+  <si>
+    <t>dmlc_millenium_reference_prostate</t>
+  </si>
+  <si>
+    <t>dmlc_hd120_reference_prostate</t>
+  </si>
+  <si>
+    <t>dmlc_millenium_reference_hn_hi</t>
+  </si>
+  <si>
+    <t>dmlc_hd120_reference_hn_hi</t>
+  </si>
+  <si>
+    <t>dmlc_millenium_reference_hn_vmat</t>
+  </si>
+  <si>
+    <t>dmlc_hd120_reference_hn_vmat</t>
+  </si>
+  <si>
+    <t>K52</t>
+  </si>
+  <si>
+    <t>L52</t>
+  </si>
+  <si>
+    <t>K53</t>
+  </si>
+  <si>
+    <t>L53</t>
+  </si>
+  <si>
+    <t>K54</t>
+  </si>
+  <si>
+    <t>L54</t>
+  </si>
+  <si>
+    <t>K55</t>
+  </si>
+  <si>
+    <t>L55</t>
+  </si>
+  <si>
+    <t>K56</t>
+  </si>
+  <si>
+    <t>L56</t>
+  </si>
+  <si>
+    <t>KV CBCT Reference - Head, Full Filter, Half Trajectoy - 100 kV 300mAs</t>
+  </si>
+  <si>
+    <t>KV CBCT Reference - Spotlight, Full Filter, Half Trajectoy - 125 kV, 750 mAs</t>
+  </si>
+  <si>
+    <t>kv_cbct_head_half_traj_value</t>
+  </si>
+  <si>
+    <t>kv_cbct_spotlight_half_traj_value</t>
+  </si>
+  <si>
+    <t>KV CBCT Reference - Thorax, Half Filter, Full Trajectoy - 125 kV, 270 mAs</t>
+  </si>
+  <si>
+    <t>kv_cbct_thorax_full_traj_value</t>
+  </si>
+  <si>
+    <t>KV CBCT Reference - Pelvis Obese, Half Filter, Full Trajectoy - 140 kV, 1687.5 mAs</t>
+  </si>
+  <si>
+    <t>kv_cbct_pelvis_full_traj_value</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>mv_pips_pro_f30</t>
+  </si>
+  <si>
+    <t>MV Pips Pro Image Quality - 6 MV - f30</t>
+  </si>
+  <si>
+    <t>MV Pips Pro Image Quality - 6 MV - f10</t>
+  </si>
+  <si>
+    <t>MV Pips Pro Image Quality - 6 MV - CNR</t>
+  </si>
+  <si>
+    <t>mv_pips_pro_f10</t>
+  </si>
+  <si>
+    <t>mv_pips_pro_cnr</t>
+  </si>
+  <si>
+    <t>AA52</t>
+  </si>
+  <si>
+    <t>AB52</t>
+  </si>
+  <si>
+    <t>AC52</t>
+  </si>
+  <si>
+    <t>AA53</t>
+  </si>
+  <si>
+    <t>AB53</t>
+  </si>
+  <si>
+    <t>AC53</t>
+  </si>
+  <si>
+    <t>AA54</t>
+  </si>
+  <si>
+    <t>AB54</t>
+  </si>
+  <si>
+    <t>AC54</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Lg FS - f30</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Lg FS  - CNR</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Lg FS - f10</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Sm FS  - f30</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Sm FS  - f10</t>
+  </si>
+  <si>
+    <t>kV Pips Pro Image Quality - 60 kV, Sm FS  - CNR</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_lg_f30</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_lg_f10</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_lg_cnr</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_sm_f10</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_sm_f30</t>
+  </si>
+  <si>
+    <t>kv_pips_pro_sm_cnr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2914,6 +3198,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2944,10 +3235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2962,9 +3254,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2977,6 +3280,285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Data"/>
+      <sheetName val="Info"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Lesley Baldwin</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>JAN</v>
+          </cell>
+          <cell r="D2">
+            <v>2020</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>PASS</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>REVIEWED</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>PASS</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>YES</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>Susan Dang</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Wayne Beckham</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>FEB</v>
+          </cell>
+          <cell r="D3">
+            <v>2021</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>FAIL</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>NOT REVIEWED</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>FAIL</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>NO</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>Conor Smith</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Dominique Fortin</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>MAR</v>
+          </cell>
+          <cell r="D4">
+            <v>2022</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>CONDITIONAL PASS</v>
+          </cell>
+          <cell r="U4" t="str">
+            <v>Kyle Bromma</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Isabelle Gagné</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>APR</v>
+          </cell>
+          <cell r="D5">
+            <v>2023</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>Elena Timakova</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Mehran Goharian</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>MAY</v>
+          </cell>
+          <cell r="D6">
+            <v>2024</v>
+          </cell>
+          <cell r="U6" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Matt Gwilliam</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>JUN</v>
+          </cell>
+          <cell r="D7">
+            <v>2025</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Carmen Popescu</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>JUL</v>
+          </cell>
+          <cell r="D8">
+            <v>2026</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Manuel Rodriguez Vega</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>AUG</v>
+          </cell>
+          <cell r="D9">
+            <v>2027</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Derek Wells</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>SEP</v>
+          </cell>
+          <cell r="D10">
+            <v>2028</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Roja Zakariaee</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>OCT</v>
+          </cell>
+          <cell r="D11">
+            <v>2029</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Sergei Zavgorodni</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>NOV</v>
+          </cell>
+          <cell r="D12">
+            <v>2030</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Clay Lindsay</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>DEC</v>
+          </cell>
+          <cell r="D13">
+            <v>2031</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>VIFIR_TB1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>VIARBUTUS_TB2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>VIBIRCH_TB3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>VICEDAR_TB4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>VISPRUCE_TB5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>VIOAK_TB6</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>PTW#7</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>MKS#1</v>
+          </cell>
+          <cell r="M31" t="str">
+            <v>Unidos S1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>PTW#2</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>MKS#2</v>
+          </cell>
+          <cell r="M32" t="str">
+            <v>Unidos E2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>PTW#3</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>MKS#4</v>
+          </cell>
+          <cell r="M33" t="str">
+            <v>Unidos E3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>PTW#4</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>MKSadv</v>
+          </cell>
+          <cell r="M34" t="str">
+            <v>Unidos E4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>PTW#5</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>Unidos E5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>PTW#6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3242,23 +3824,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="80.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -3301,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -3330,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -3359,7 +3942,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -3388,7 +3971,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3417,7 +4000,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3446,7 +4029,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3475,7 +4058,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -3504,7 +4087,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3533,7 +4116,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -3562,7 +4145,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -3591,7 +4174,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -3620,7 +4203,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -3649,7 +4232,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -3678,7 +4261,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -3707,7 +4290,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -3736,7 +4319,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -3765,7 +4348,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
@@ -3794,7 +4377,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -3823,7 +4406,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
@@ -3852,7 +4435,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -3881,7 +4464,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
@@ -3910,7 +4493,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -3939,7 +4522,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
@@ -3968,7 +4551,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>11</v>
@@ -3997,7 +4580,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
@@ -4026,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -4055,7 +4638,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>11</v>
@@ -4084,7 +4667,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -4113,7 +4696,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -4142,7 +4725,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -4171,7 +4754,7 @@
         <v>87</v>
       </c>
       <c r="D32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>11</v>
@@ -4200,7 +4783,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>11</v>
@@ -4229,7 +4812,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -4258,7 +4841,7 @@
         <v>93</v>
       </c>
       <c r="D35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>11</v>
@@ -4287,7 +4870,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
@@ -4316,7 +4899,7 @@
         <v>97</v>
       </c>
       <c r="D37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
@@ -4345,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -4374,7 +4957,7 @@
         <v>101</v>
       </c>
       <c r="D39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
@@ -4403,7 +4986,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
@@ -4432,7 +5015,7 @@
         <v>105</v>
       </c>
       <c r="D41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
@@ -4461,7 +5044,7 @@
         <v>108</v>
       </c>
       <c r="D42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -4490,7 +5073,7 @@
         <v>110</v>
       </c>
       <c r="D43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -4519,7 +5102,7 @@
         <v>112</v>
       </c>
       <c r="D44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -4548,7 +5131,7 @@
         <v>114</v>
       </c>
       <c r="D45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
@@ -4577,7 +5160,7 @@
         <v>116</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
@@ -4606,7 +5189,7 @@
         <v>118</v>
       </c>
       <c r="D47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
@@ -4635,7 +5218,7 @@
         <v>120</v>
       </c>
       <c r="D48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
@@ -4664,7 +5247,7 @@
         <v>122</v>
       </c>
       <c r="D49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
@@ -4693,7 +5276,7 @@
         <v>124</v>
       </c>
       <c r="D50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
@@ -4722,7 +5305,7 @@
         <v>126</v>
       </c>
       <c r="D51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -4751,7 +5334,7 @@
         <v>128</v>
       </c>
       <c r="D52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>11</v>
@@ -4780,7 +5363,7 @@
         <v>130</v>
       </c>
       <c r="D53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>11</v>
@@ -4809,7 +5392,7 @@
         <v>132</v>
       </c>
       <c r="D54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>11</v>
@@ -4838,7 +5421,7 @@
         <v>134</v>
       </c>
       <c r="D55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
@@ -4854,6 +5437,876 @@
       </c>
       <c r="I55" s="1" t="s">
         <v>922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -4867,366 +6320,367 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="1" t="b">
+      <c r="D6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="1" t="b">
+      <c r="D7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="1" t="b">
+      <c r="D9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="1" t="b">
+      <c r="D10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="1" t="b">
+      <c r="D11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="1" t="b">
+      <c r="D12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5239,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11469,7 +12923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
